--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_4_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_4_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.16000000000018</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.513080783134796e-16</v>
+        <v>1.43486012875626e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>55.32686137393106</v>
+        <v>55.59143173301403</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.20528789476057, 61.448434853101546]</t>
+          <t>[49.837139098972166, 61.3457243670559]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3899739268135027, 1.6415529180919632]</t>
+          <t>[1.540921321580579, 1.7421845146033492]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.22443025116315</v>
+        <v>57.34537162216935</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.14664651415438, 62.30221398817192]</t>
+          <t>[53.57318510774726, 61.11755813659145]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.57285285285299</v>
+        <v>17.18306306306321</v>
       </c>
       <c r="X2" t="n">
-        <v>17.10918918918933</v>
+        <v>16.81053053053067</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.03651651651665</v>
+        <v>17.55559559559575</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.59000000000009</v>
+        <v>22.81000000000013</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.513080783134796e-16</v>
+        <v>1.43486012875626e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>52.1964046756013</v>
+        <v>50.19912752230111</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[44.02754004735328, 60.365269303849324]</t>
+          <t>[39.46996771064765, 60.92828733395457]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1572368695490383</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.01886842434588587, 0.3333421634439624]</t>
+          <t>[0.5849211547224238, 1.0126054398958102]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.07981388642605647</v>
+        <v>5.224265464676137e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07981388642605647</v>
+        <v>5.224265464676137e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>56.79114366143053</v>
+        <v>56.03834397465978</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.65132131741371, 61.93096600544735]</t>
+          <t>[50.62353374463118, 61.45315420468838]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22.02468468468478</v>
+        <v>19.91023023023034</v>
       </c>
       <c r="X3" t="n">
-        <v>21.39153153153162</v>
+        <v>19.13391391391402</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.65783783783793</v>
+        <v>20.68654654654666</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_4_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_4_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2600000000002</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.43486012875626e-16</v>
+        <v>1.50283996565165e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>55.59143173301403</v>
+        <v>58.25844680437908</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.837139098972166, 61.3457243670559]</t>
+          <t>[52.39267732793962, 64.12421628081854]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.540921321580579, 1.7421845146033492]</t>
+          <t>[1.540921321580579, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.34537162216935</v>
+        <v>57.84085977310681</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[53.57318510774726, 61.11755813659145]</t>
+          <t>[53.94404028495377, 61.73767926125984]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.18306306306321</v>
+        <v>17.1217617617619</v>
       </c>
       <c r="X2" t="n">
-        <v>16.81053053053067</v>
+        <v>16.70302302302316</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.55559559559575</v>
+        <v>17.54050050050065</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.81000000000013</v>
+        <v>22.52000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43486012875626e-16</v>
+        <v>1.50283996565165e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>50.19912752230111</v>
+        <v>55.82666803811072</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.46996771064765, 60.92828733395457]</t>
+          <t>[46.946852952839905, 64.70648312338153]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.798763297309117</v>
+        <v>0.106921071293347</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.5849211547224238, 1.0126054398958102]</t>
+          <t>[-0.06918422260157531, 0.2830263651882694]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>5.224265464676137e-12</v>
+        <v>0.2325543080762609</v>
       </c>
       <c r="R3" t="n">
-        <v>5.224265464676137e-12</v>
+        <v>0.2325543080762609</v>
       </c>
       <c r="S3" t="n">
-        <v>56.03834397465978</v>
+        <v>59.43711392392031</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.62353374463118, 61.45315420468838]</t>
+          <t>[53.94292572202001, 64.93130212582062]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>19.91023023023034</v>
+        <v>22.13677677677686</v>
       </c>
       <c r="X3" t="n">
-        <v>19.13391391391402</v>
+        <v>21.50558558558567</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.68654654654666</v>
+        <v>22.76796796796804</v>
       </c>
     </row>
   </sheetData>
